--- a/data/trans_bre/P16A15-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Clase-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A15-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-4.224330172759069</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.341963893208115</v>
+        <v>-1.341963893208116</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.201894747006453</v>
@@ -649,7 +649,7 @@
         <v>-0.4956488105153072</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1136153199854918</v>
+        <v>-0.1136153199854919</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.39529919601962</v>
+        <v>-4.348780969678291</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.433421219645727</v>
+        <v>-7.179962887061837</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.942050388488282</v>
+        <v>-7.978654340910213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.853163647798789</v>
+        <v>-4.77551640246337</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6316691967320045</v>
+        <v>-0.6162446111727776</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6788010996806144</v>
+        <v>-0.670540388334255</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7568565915580105</v>
+        <v>-0.7477198068517835</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3573180144166838</v>
+        <v>-0.3476446187240724</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.089657960215486</v>
+        <v>2.54075884926575</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9273167796777768</v>
+        <v>0.7326957395642431</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.565359523516862</v>
+        <v>-0.124506635987374</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.984451335424252</v>
+        <v>1.899818213061305</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5233402455579307</v>
+        <v>0.588093299252078</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1771737024626406</v>
+        <v>0.1239394316959901</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.05342968892355539</v>
+        <v>0.004530811397373226</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1903566415145566</v>
+        <v>0.1893848215736968</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.895806994736841</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-4.721217111855171</v>
+        <v>-4.72121711185517</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.4449617912294908</v>
@@ -749,7 +749,7 @@
         <v>-0.2312618974254474</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3404101970797102</v>
+        <v>-0.34041019707971</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.501751024949254</v>
+        <v>-5.52746687500668</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.472245894185062</v>
+        <v>-6.954389003945656</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.559742580396387</v>
+        <v>-5.983259350292863</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.2340531766803</v>
+        <v>-8.484541824363788</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7448416499276078</v>
+        <v>-0.7553973669540059</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5911958330035063</v>
+        <v>-0.6129362197691399</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5794259994903179</v>
+        <v>-0.5600012835148509</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5201693152959996</v>
+        <v>-0.5200737784427871</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2986581969032114</v>
+        <v>0.5031356567184713</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.827322149114611</v>
+        <v>1.505732343452082</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.884083686625223</v>
+        <v>2.102953687270818</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.088772534528879</v>
+        <v>-0.7763566788434532</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1611377556015217</v>
+        <v>0.1868028658684133</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2550220453954465</v>
+        <v>0.2369701595759708</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3140453549229391</v>
+        <v>0.3827178116562602</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.0966523432018304</v>
+        <v>-0.06359398633704795</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.743567870505697</v>
+        <v>-3.003875118033581</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.228129238634933</v>
+        <v>-8.217075380154144</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.113550168093403</v>
+        <v>-4.527354516871302</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.559211613451959</v>
+        <v>-3.111755620561843</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4477672917182434</v>
+        <v>-0.4817455329959937</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.630364214447851</v>
+        <v>-0.6129153312449146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3329429620894092</v>
+        <v>-0.3575056796843141</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2252658880970934</v>
+        <v>-0.196061025302676</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.797253889860692</v>
+        <v>5.438854131128597</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6452088189669872</v>
+        <v>0.6030696570536379</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.077221006057508</v>
+        <v>8.47571568831442</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.499228480237627</v>
+        <v>7.320969832554194</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.332359495383786</v>
+        <v>1.270441401059648</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07721977349529596</v>
+        <v>0.08764512342196913</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8350029617131828</v>
+        <v>0.8378070878485337</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.521292875428679</v>
+        <v>0.5789212631753623</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-3.584931871827307</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.940077621559976</v>
+        <v>-2.940077621559978</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2286051476058077</v>
@@ -949,7 +949,7 @@
         <v>-0.348038158011288</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2160870973927436</v>
+        <v>-0.2160870973927437</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.885239546490466</v>
+        <v>-3.714585425085065</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.908894365615515</v>
+        <v>-6.873984248750163</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.136139060011901</v>
+        <v>-5.804284848789918</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.566621830292474</v>
+        <v>-5.532169330737569</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4640881583204535</v>
+        <v>-0.4402857959989859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.521548173854205</v>
+        <v>-0.5011990644742683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5273980373935648</v>
+        <v>-0.513092523545141</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.371514085316283</v>
+        <v>-0.3569705398984347</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6121119599236921</v>
+        <v>0.6854036373705183</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.258355276384628</v>
+        <v>-0.9044897564757999</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.149119713820333</v>
+        <v>-0.9869256771710151</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.6626184882810862</v>
+        <v>-0.5176283328453092</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09629586036238413</v>
+        <v>0.1146742407285421</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1142028499363752</v>
+        <v>-0.07958646929307837</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1285942404890418</v>
+        <v>-0.1042238194432712</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.0580005377699743</v>
+        <v>-0.03951277964439558</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.131910810915157</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.413508377536802</v>
+        <v>8.413508377536798</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6862810489862937</v>
@@ -1049,7 +1049,7 @@
         <v>0.187828466975122</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.7829564578189313</v>
+        <v>0.782956457818931</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0402848787061266</v>
+        <v>0.1659721810441826</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.209561172341527</v>
+        <v>-0.377146983103974</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.477315924670718</v>
+        <v>-1.38765554027783</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.052364494428041</v>
+        <v>5.392640089394495</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03224071433079564</v>
+        <v>0.02349855931970645</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.01551121654194234</v>
+        <v>-0.03615838570465231</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1146150450071251</v>
+        <v>-0.1013606999969635</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3972164219075711</v>
+        <v>0.4378636230569223</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.255409500625984</v>
+        <v>6.207156966670746</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.734300044200951</v>
+        <v>7.659095095956091</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.93014860261111</v>
+        <v>5.70999655167125</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.18910571805616</v>
+        <v>11.5117043010912</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.893874117535026</v>
+        <v>1.993486767431491</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8436955399609112</v>
+        <v>0.8119915930587297</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6045763642678893</v>
+        <v>0.5992137502289258</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.241615057318322</v>
+        <v>1.344866284759465</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>15.20996418226803</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15.22974831148563</v>
+        <v>15.22974831148562</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>10.90367237843833</v>
@@ -1149,7 +1149,7 @@
         <v>18.18270490914275</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>9.916959041452177</v>
+        <v>9.916959041452174</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.3367510905769</v>
+        <v>8.18864312300799</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>13.89516045507128</v>
+        <v>13.66787368056329</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12.2313052590215</v>
+        <v>12.6304812739272</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12.66013618949881</v>
+        <v>12.70249268559786</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>3.007443079870817</v>
+        <v>3.040990562015756</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>3.257323317375827</v>
+        <v>2.909309690476127</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>4.239279047566695</v>
+        <v>4.521611229225719</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>3.494878584387878</v>
+        <v>3.744102844171052</v>
       </c>
     </row>
     <row r="21">
@@ -1192,24 +1192,24 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.73367832915342</v>
+        <v>12.59533194559102</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>19.50518132166791</v>
+        <v>19.46166052554375</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.78041068058876</v>
+        <v>17.97813715094067</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.87143835183321</v>
+        <v>17.54100146412528</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>41.36170388578271</v>
+        <v>37.58765021680939</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>26.2677857278684</v>
+        <v>24.26825275964188</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1233,7 @@
         <v>1.575035311587915</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.932027534046876</v>
+        <v>1.932027534046874</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3606336275619171</v>
@@ -1245,7 +1245,7 @@
         <v>0.1673964543023387</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1587892617298753</v>
+        <v>0.158789261729875</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9552307795470147</v>
+        <v>0.9174708559064872</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2970541044449285</v>
+        <v>0.3328593699069528</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08402202018824821</v>
+        <v>0.117696906201467</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5087902501851151</v>
+        <v>0.5261386544729356</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1511455312896806</v>
+        <v>0.1394257947582104</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02768437889283283</v>
+        <v>0.03000026431237943</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.007476069466571038</v>
+        <v>0.008771429950221815</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.03879440686211807</v>
+        <v>0.03965872367719139</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.486194324713212</v>
+        <v>3.353966828771494</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.604905566990012</v>
+        <v>3.762225757149102</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.073654408538038</v>
+        <v>3.092090150167298</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.223384110357185</v>
+        <v>3.269316574504608</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6620555198181103</v>
+        <v>0.6408900140742921</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3866647166809296</v>
+        <v>0.3994991098472536</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3497878705382619</v>
+        <v>0.3486781242419718</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2791330214670028</v>
+        <v>0.283188007512604</v>
       </c>
     </row>
     <row r="25">
